--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hbegf-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hbegf-Erbb4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.47086066666667</v>
+        <v>8.459557</v>
       </c>
       <c r="H2">
-        <v>31.412582</v>
+        <v>25.378671</v>
       </c>
       <c r="I2">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="J2">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,19 +567,19 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P2">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q2">
-        <v>0.107839394006</v>
+        <v>0.08712497754300001</v>
       </c>
       <c r="R2">
-        <v>0.9705545460540002</v>
+        <v>0.7841247978870001</v>
       </c>
       <c r="S2">
-        <v>0.3337985709855334</v>
+        <v>0.2973412202969924</v>
       </c>
       <c r="T2">
-        <v>0.3337985709855334</v>
+        <v>0.2973412202969924</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.47086066666667</v>
+        <v>8.459557</v>
       </c>
       <c r="H3">
-        <v>31.412582</v>
+        <v>25.378671</v>
       </c>
       <c r="I3">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="J3">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>0.01898714081600254</v>
       </c>
       <c r="Q3">
-        <v>0.002087191559555555</v>
+        <v>0.001686271695333333</v>
       </c>
       <c r="R3">
-        <v>0.018784724036</v>
+        <v>0.015176445258</v>
       </c>
       <c r="S3">
-        <v>0.006460547802354565</v>
+        <v>0.005754929272667297</v>
       </c>
       <c r="T3">
-        <v>0.006460547802354565</v>
+        <v>0.005754929272667296</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>38.529407</v>
       </c>
       <c r="I4">
-        <v>0.417348120993043</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="J4">
-        <v>0.4173481209930429</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,7 +691,7 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P4">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q4">
         <v>0.132271454231</v>
@@ -700,10 +700,10 @@
         <v>1.190443088079</v>
       </c>
       <c r="S4">
-        <v>0.409423873450454</v>
+        <v>0.4514176843499599</v>
       </c>
       <c r="T4">
-        <v>0.4094238734504539</v>
+        <v>0.4514176843499598</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>38.529407</v>
       </c>
       <c r="I5">
-        <v>0.417348120993043</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="J5">
-        <v>0.4173481209930429</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -762,10 +762,10 @@
         <v>0.023040585386</v>
       </c>
       <c r="S5">
-        <v>0.007924247542588973</v>
+        <v>0.008737022210611905</v>
       </c>
       <c r="T5">
-        <v>0.007924247542588971</v>
+        <v>0.008737022210611903</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.820871333333334</v>
+        <v>1.955432333333333</v>
       </c>
       <c r="H6">
-        <v>5.462614</v>
+        <v>5.866296999999999</v>
       </c>
       <c r="I6">
-        <v>0.0591706923651924</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="J6">
-        <v>0.05917069236519239</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,19 +815,19 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P6">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q6">
-        <v>0.018753153862</v>
+        <v>0.020138997601</v>
       </c>
       <c r="R6">
-        <v>0.168778384758</v>
+        <v>0.181250978409</v>
       </c>
       <c r="S6">
-        <v>0.05804721009707413</v>
+        <v>0.0687306245707108</v>
       </c>
       <c r="T6">
-        <v>0.05804721009707412</v>
+        <v>0.06873062457071079</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.820871333333334</v>
+        <v>1.955432333333333</v>
       </c>
       <c r="H7">
-        <v>5.462614</v>
+        <v>5.866296999999999</v>
       </c>
       <c r="I7">
-        <v>0.0591706923651924</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="J7">
-        <v>0.05917069236519239</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -880,16 +880,16 @@
         <v>0.01898714081600254</v>
       </c>
       <c r="Q7">
-        <v>0.0003629603524444445</v>
+        <v>0.0003897828451111111</v>
       </c>
       <c r="R7">
-        <v>0.003266643172</v>
+        <v>0.003508045606</v>
       </c>
       <c r="S7">
-        <v>0.001123482268118274</v>
+        <v>0.001330255801316796</v>
       </c>
       <c r="T7">
-        <v>0.001123482268118274</v>
+        <v>0.001330255801316796</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.468428</v>
+        <v>2.929608</v>
       </c>
       <c r="H8">
-        <v>10.405284</v>
+        <v>8.788824000000002</v>
       </c>
       <c r="I8">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="J8">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -939,19 +939,19 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P8">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q8">
-        <v>0.035721339972</v>
+        <v>0.03017203279200001</v>
       </c>
       <c r="R8">
-        <v>0.321492059748</v>
+        <v>0.2715482951280001</v>
       </c>
       <c r="S8">
-        <v>0.1105693549768891</v>
+        <v>0.1029714933904732</v>
       </c>
       <c r="T8">
-        <v>0.1105693549768891</v>
+        <v>0.1029714933904732</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.468428</v>
+        <v>2.929608</v>
       </c>
       <c r="H9">
-        <v>10.405284</v>
+        <v>8.788824000000002</v>
       </c>
       <c r="I9">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="J9">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1004,16 +1004,16 @@
         <v>0.01898714081600254</v>
       </c>
       <c r="Q9">
-        <v>0.0006913733146666666</v>
+        <v>0.0005839685280000001</v>
       </c>
       <c r="R9">
-        <v>0.006222359832</v>
+        <v>0.005255716752000001</v>
       </c>
       <c r="S9">
-        <v>0.002140028943786764</v>
+        <v>0.001992975144755251</v>
       </c>
       <c r="T9">
-        <v>0.002140028943786764</v>
+        <v>0.001992975144755251</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.169900666666666</v>
+        <v>1.722740333333333</v>
       </c>
       <c r="H10">
-        <v>6.509702</v>
+        <v>5.168221</v>
       </c>
       <c r="I10">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251228</v>
       </c>
       <c r="J10">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251227</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1063,19 +1063,19 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P10">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q10">
-        <v>0.022347806966</v>
+        <v>0.017742502693</v>
       </c>
       <c r="R10">
-        <v>0.201130262694</v>
+        <v>0.159682524237</v>
       </c>
       <c r="S10">
-        <v>0.06917384967404681</v>
+        <v>0.06055183657586099</v>
       </c>
       <c r="T10">
-        <v>0.06917384967404681</v>
+        <v>0.06055183657586097</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.169900666666666</v>
+        <v>1.722740333333333</v>
       </c>
       <c r="H11">
-        <v>6.509702</v>
+        <v>5.168221</v>
       </c>
       <c r="I11">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251228</v>
       </c>
       <c r="J11">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251227</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1128,16 +1128,16 @@
         <v>0.01898714081600254</v>
       </c>
       <c r="Q11">
-        <v>0.0004325335328888889</v>
+        <v>0.0003433995731111111</v>
       </c>
       <c r="R11">
-        <v>0.003892801796</v>
+        <v>0.003090596158</v>
       </c>
       <c r="S11">
-        <v>0.001338834259153963</v>
+        <v>0.001171958386651289</v>
       </c>
       <c r="T11">
-        <v>0.001338834259153963</v>
+        <v>0.001171958386651289</v>
       </c>
     </row>
   </sheetData>
